--- a/NSFA/NSFA_Master.xlsx
+++ b/NSFA/NSFA_Master.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsms9vyk\Documents\Github\Analysis_Scripts\NSFA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oli Steele\Documents\GitHub\Analysis Scripts\NSFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933DE1FF-08A1-4E79-A038-454F4456465D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BB9B1B-518C-4818-AA58-5095DF065B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435A29C5-C21A-4C1A-AD82-E806E9E0C837}"/>
+    <workbookView xWindow="-16320" yWindow="1290" windowWidth="16440" windowHeight="28320" xr2:uid="{435A29C5-C21A-4C1A-AD82-E806E9E0C837}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
   <si>
     <t>Recording</t>
   </si>
@@ -171,7 +168,13 @@
     <t>Looking a bit more sensible here, later period of above</t>
   </si>
   <si>
-    <t xml:space="preserve">    'C:\Users\bsms9vyk\OneDrive - University of Brighton\Research\Modulation of Nav currents by APOE genotype\NSFA\20220704\slice_000\cell_001\Copy_of_OGS_NSFA_Raw_001'</t>
+    <t>C:\Users\bsms9vyk\OneDrive - University of Brighton\Research\Modulation of Nav currents by APOE genotype\NSFA\20220704\slice_000\cell_001\Copy_of_OGS_NSFA_Raw_001'</t>
+  </si>
+  <si>
+    <t>C:\Users\Oli Steele\OneDrive - University of Brighton\Research\Modulation of Nav currents by APOE genotype\NSFA\20220704\slice_001\cell_000\OGS_NSFA_Raw_000'</t>
+  </si>
+  <si>
+    <t>Baseline period isn't long enough, extend it. Negative Parabola</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC011D6-1AF4-4249-8BCF-4C756822F831}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1094,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1134,6 +1137,21 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
@@ -1165,11 +1183,26 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I17" t="s">
@@ -1197,13 +1230,42 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J6 M8:O8 I2:I122 J8:J17">
+  <conditionalFormatting sqref="J6 M8:O8 I2:I122 J8:J18">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:O8 I1:I1048576 J8:J17">
+  <conditionalFormatting sqref="M8:O8 I1:I1048576 J8:J18">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",I1)))</formula>
     </cfRule>
